--- a/protein-predict/data/graphics.xlsx
+++ b/protein-predict/data/graphics.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VR\Source\Repos\protein-predict\protein-predict\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VR\Desktop\vrGitTest\protein-predict\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -547,7 +547,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1360,7 +1360,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3E5C-41FC-BFAE-617F1C10B602}"/>
             </c:ext>
@@ -1376,11 +1376,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-35"/>
-        <c:axId val="1987924447"/>
-        <c:axId val="1987920287"/>
+        <c:axId val="215357096"/>
+        <c:axId val="215358664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1987924447"/>
+        <c:axId val="215357096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1389,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1987920287"/>
+        <c:crossAx val="215358664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1397,7 +1397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1987920287"/>
+        <c:axId val="215358664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1407,433 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1987924447"/>
+        <c:crossAx val="215357096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>1_5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$15:$CA$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-35"/>
+        <c:axId val="480120752"/>
+        <c:axId val="480116440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="480120752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="480116440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480116440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="480120752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1457,7 +1883,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2007,7 +2433,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CF5D-48CE-9733-4207B2E7EE0E}"/>
             </c:ext>
@@ -2023,11 +2449,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-35"/>
-        <c:axId val="1996973135"/>
-        <c:axId val="1996970223"/>
+        <c:axId val="215360232"/>
+        <c:axId val="215360624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1996973135"/>
+        <c:axId val="215360232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,7 +2462,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1996970223"/>
+        <c:crossAx val="215360624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2044,7 +2470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1996970223"/>
+        <c:axId val="215360624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,7 +2480,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1996973135"/>
+        <c:crossAx val="215360232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2104,7 +2530,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3728,7 +4154,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0E1B-48A7-943F-53F6047C8B7B}"/>
             </c:ext>
@@ -3744,11 +4170,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-35"/>
-        <c:axId val="1987923199"/>
-        <c:axId val="1987924031"/>
+        <c:axId val="215364544"/>
+        <c:axId val="215362584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1987923199"/>
+        <c:axId val="215364544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3757,7 +4183,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1987924031"/>
+        <c:crossAx val="215362584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3765,7 +4191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1987924031"/>
+        <c:axId val="215362584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,7 +4201,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1987923199"/>
+        <c:crossAx val="215364544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3825,7 +4251,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -4279,7 +4705,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EEC5-4BF9-9994-9ACEAA5D2FDE}"/>
             </c:ext>
@@ -4295,11 +4721,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-35"/>
-        <c:axId val="2111696671"/>
-        <c:axId val="2111704991"/>
+        <c:axId val="215363368"/>
+        <c:axId val="215362976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2111696671"/>
+        <c:axId val="215363368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4308,7 +4734,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111704991"/>
+        <c:crossAx val="215362976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4316,7 +4742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111704991"/>
+        <c:axId val="215362976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4326,7 +4752,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111696671"/>
+        <c:crossAx val="215363368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4376,7 +4802,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -5412,7 +5838,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-375B-4C2A-83D3-13C7D154BBC0}"/>
             </c:ext>
@@ -5428,11 +5854,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-35"/>
-        <c:axId val="2111702495"/>
-        <c:axId val="2111704575"/>
+        <c:axId val="215363760"/>
+        <c:axId val="215361408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2111702495"/>
+        <c:axId val="215363760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5441,7 +5867,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111704575"/>
+        <c:crossAx val="215361408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5449,7 +5875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111704575"/>
+        <c:axId val="215361408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5459,7 +5885,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111702495"/>
+        <c:crossAx val="215363760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5509,7 +5935,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -6818,7 +7244,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0277-4E63-8134-58F848025024}"/>
             </c:ext>
@@ -6834,11 +7260,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-35"/>
-        <c:axId val="2111706655"/>
-        <c:axId val="2111705823"/>
+        <c:axId val="445103600"/>
+        <c:axId val="445097720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2111706655"/>
+        <c:axId val="445103600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6847,7 +7273,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111705823"/>
+        <c:crossAx val="445097720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6855,7 +7281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111705823"/>
+        <c:axId val="445097720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6865,7 +7291,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111706655"/>
+        <c:crossAx val="445103600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6915,7 +7341,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -6992,8 +7418,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.8789370078740161E-2"/>
-          <c:y val="0.18969925634295715"/>
+          <c:x val="5.9862719220957143E-2"/>
+          <c:y val="0.18397929627699608"/>
           <c:w val="0.90787729658792649"/>
           <c:h val="0.75474518810148727"/>
         </c:manualLayout>
@@ -7403,7 +7829,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D317-41AB-862A-7B52169A38F0}"/>
             </c:ext>
@@ -7419,11 +7845,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-35"/>
-        <c:axId val="1994803807"/>
-        <c:axId val="1994808383"/>
+        <c:axId val="445101248"/>
+        <c:axId val="445110264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1994803807"/>
+        <c:axId val="445101248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7432,7 +7858,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1994808383"/>
+        <c:crossAx val="445110264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7440,7 +7866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1994808383"/>
+        <c:axId val="445110264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7450,7 +7876,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1994803807"/>
+        <c:crossAx val="445101248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7500,7 +7926,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -8350,7 +8776,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3453-4747-9E64-2BA507F469E5}"/>
             </c:ext>
@@ -8366,11 +8792,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-35"/>
-        <c:axId val="1994800479"/>
-        <c:axId val="1994803391"/>
+        <c:axId val="445110656"/>
+        <c:axId val="212590272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1994800479"/>
+        <c:axId val="445110656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8379,7 +8805,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1994803391"/>
+        <c:crossAx val="212590272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8387,7 +8813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1994803391"/>
+        <c:axId val="212590272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8397,7 +8823,3382 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1994800479"/>
+        <c:crossAx val="445110656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1_4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$12:$ANV$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1061"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-35"/>
+        <c:axId val="472998216"/>
+        <c:axId val="473000568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="472998216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="473000568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="473000568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="472998216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8447,6 +12248,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8766,7 +12607,535 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="211">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="211">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12670,6 +17039,494 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="211">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12824,16 +17681,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>18097</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>18098</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>98107</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12854,16 +17711,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>391477</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>79057</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12884,16 +17741,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>351473</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>58103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>31433</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12907,6 +17764,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>306041</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>314741</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="圖表 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13184,93 +18101,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AOA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="AF84" sqref="AF84"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BM38" sqref="BM38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="407" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="408" max="409" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="410" max="450" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="451" max="451" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="452" max="463" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="464" max="465" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="466" max="473" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="474" max="476" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="477" max="486" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="487" max="491" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="492" max="506" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="507" max="507" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="508" max="526" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="527" max="528" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="529" max="559" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="560" max="564" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="565" max="595" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="596" max="604" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="605" max="608" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="609" max="616" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="617" max="619" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="620" max="622" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="623" max="633" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="634" max="638" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="639" max="644" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="645" max="649" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="650" max="658" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="659" max="661" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="662" max="669" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="670" max="671" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="672" max="699" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="700" max="712" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="713" max="737" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="738" max="740" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="741" max="744" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="745" max="746" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="747" max="755" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="756" max="756" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="757" max="806" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="807" max="811" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="812" max="817" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="818" max="821" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="822" max="848" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="849" max="850" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="851" max="857" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="858" max="859" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="860" max="867" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="868" max="871" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="872" max="876" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="877" max="877" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="878" max="881" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="882" max="885" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="886" max="915" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="916" max="920" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="921" max="926" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="927" max="929" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="930" max="934" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="935" max="937" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="938" max="940" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="941" max="943" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="944" max="952" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="953" max="957" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="958" max="976" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="977" max="980" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="981" max="985" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="986" max="988" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="989" max="993" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="994" max="996" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="997" max="1005" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="1006" max="1007" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="1008" max="1018" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="1019" max="1019" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="1020" max="1046" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="1047" max="1050" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="1051" max="1062" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="1063" max="1064" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="1065" max="1067" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="407" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="408" max="409" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="410" max="450" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="452" max="463" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="464" max="465" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="466" max="473" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="474" max="476" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="477" max="486" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="487" max="491" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="492" max="506" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="507" max="507" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="508" max="526" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="527" max="528" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="529" max="559" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="560" max="564" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="565" max="595" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="596" max="604" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="605" max="608" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="609" max="616" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="617" max="619" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="620" max="622" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="623" max="633" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="634" max="638" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="639" max="644" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="645" max="649" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="650" max="658" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="659" max="661" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="662" max="669" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="670" max="671" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="672" max="699" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="700" max="712" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="713" max="737" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="738" max="740" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="741" max="744" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="745" max="746" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="747" max="755" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="756" max="756" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="757" max="806" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="807" max="811" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="812" max="817" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="818" max="821" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="822" max="848" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="849" max="850" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="851" max="857" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="858" max="859" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="860" max="867" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="868" max="871" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="872" max="876" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="877" max="877" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="878" max="881" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="882" max="885" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="886" max="915" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="916" max="920" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="921" max="926" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="927" max="929" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="930" max="934" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="935" max="937" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="938" max="940" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="941" max="943" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="944" max="952" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="953" max="957" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="958" max="976" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="977" max="980" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="981" max="985" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="986" max="988" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="989" max="993" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="994" max="996" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="997" max="1005" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1006" max="1007" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1008" max="1018" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1019" max="1019" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1020" max="1046" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1047" max="1050" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1051" max="1062" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1063" max="1064" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1065" max="1067" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-1</v>
       </c>
@@ -13926,7 +18843,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="2" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -14381,7 +19298,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="3" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -15910,7 +20827,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -16269,7 +21186,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -17210,7 +22127,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1</v>
       </c>
@@ -18256,7 +23173,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1</v>
       </c>
@@ -19227,7 +24144,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -20441,7 +25358,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1</v>
       </c>
@@ -20692,7 +25609,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -21075,7 +25992,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -21830,7 +26747,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -25018,7 +29935,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1</v>
       </c>
@@ -25500,7 +30417,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1</v>
       </c>
@@ -25889,7 +30806,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -26128,7 +31045,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:1062" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1062" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -26658,7 +31575,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:1067" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1067" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -29861,7 +34778,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:1067" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1067" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -30355,7 +35272,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:1067" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1067" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -30537,7 +35454,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:1067" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1067" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
